--- a/Code/Results/Cases/Case_5_135/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_5_135/res_bus/vm_pu.xlsx
@@ -418,37 +418,37 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C2">
-        <v>0.9944556970609342</v>
+        <v>1.04970888862596</v>
       </c>
       <c r="D2">
-        <v>1.015188125991968</v>
+        <v>1.05336706752593</v>
       </c>
       <c r="E2">
-        <v>1.000793036598304</v>
+        <v>1.04680113597715</v>
       </c>
       <c r="F2">
-        <v>1.015010327459342</v>
+        <v>1.061627691383946</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.040205343116719</v>
+        <v>1.038302735358962</v>
       </c>
       <c r="J2">
-        <v>1.01680351137667</v>
+        <v>1.054745901642773</v>
       </c>
       <c r="K2">
-        <v>1.026439844839816</v>
+        <v>1.056113232328338</v>
       </c>
       <c r="L2">
-        <v>1.012241334207198</v>
+        <v>1.049565555426539</v>
       </c>
       <c r="M2">
-        <v>1.026264431576752</v>
+        <v>1.064351237256879</v>
       </c>
       <c r="N2">
         <v>1.005712725503983</v>
@@ -459,37 +459,37 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C3">
-        <v>1.003248326361713</v>
+        <v>1.051408124854707</v>
       </c>
       <c r="D3">
-        <v>1.022110709218338</v>
+        <v>1.054710776521811</v>
       </c>
       <c r="E3">
-        <v>1.008193554507648</v>
+        <v>1.048273350027508</v>
       </c>
       <c r="F3">
-        <v>1.022914443645875</v>
+        <v>1.063200686143314</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.04271391311083</v>
+        <v>1.038686550608598</v>
       </c>
       <c r="J3">
-        <v>1.02365082872601</v>
+        <v>1.056090861217224</v>
       </c>
       <c r="K3">
-        <v>1.032468284912078</v>
+        <v>1.057268612926101</v>
       </c>
       <c r="L3">
-        <v>1.018722659827451</v>
+        <v>1.050847771178331</v>
       </c>
       <c r="M3">
-        <v>1.033262290334574</v>
+        <v>1.065736980932223</v>
       </c>
       <c r="N3">
         <v>1.005712725503983</v>
@@ -500,37 +500,37 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C4">
-        <v>1.008743802332487</v>
+        <v>1.052505325776799</v>
       </c>
       <c r="D4">
-        <v>1.026439794733863</v>
+        <v>1.055577957420256</v>
       </c>
       <c r="E4">
-        <v>1.012825189550899</v>
+        <v>1.049224047233271</v>
       </c>
       <c r="F4">
-        <v>1.027861463431365</v>
+        <v>1.064216531138524</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.044267763032155</v>
+        <v>1.038932505001579</v>
       </c>
       <c r="J4">
-        <v>1.027926454857833</v>
+        <v>1.056958514722632</v>
       </c>
       <c r="K4">
-        <v>1.036229253022037</v>
+        <v>1.058013399260951</v>
       </c>
       <c r="L4">
-        <v>1.022771251428473</v>
+        <v>1.051675023326692</v>
       </c>
       <c r="M4">
-        <v>1.037634863607936</v>
+        <v>1.066631172740828</v>
       </c>
       <c r="N4">
         <v>1.005712725503983</v>
@@ -541,37 +541,37 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C5">
-        <v>1.011010687113341</v>
+        <v>1.052966046494881</v>
       </c>
       <c r="D5">
-        <v>1.028225966570918</v>
+        <v>1.055941981271521</v>
       </c>
       <c r="E5">
-        <v>1.014737110098962</v>
+        <v>1.049623269633532</v>
       </c>
       <c r="F5">
-        <v>1.029903620110734</v>
+        <v>1.064643126923598</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.044905274950492</v>
+        <v>1.039035332959586</v>
       </c>
       <c r="J5">
-        <v>1.029689096830798</v>
+        <v>1.057322657464131</v>
       </c>
       <c r="K5">
-        <v>1.037778889754434</v>
+        <v>1.058325840118521</v>
       </c>
       <c r="L5">
-        <v>1.024440642385949</v>
+        <v>1.052022228145743</v>
       </c>
       <c r="M5">
-        <v>1.039438150338729</v>
+        <v>1.067006507577721</v>
       </c>
       <c r="N5">
         <v>1.005712725503983</v>
@@ -582,37 +582,37 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C6">
-        <v>1.011388843429355</v>
+        <v>1.053043372077187</v>
       </c>
       <c r="D6">
-        <v>1.028523952163043</v>
+        <v>1.056003071128438</v>
       </c>
       <c r="E6">
-        <v>1.015056129242046</v>
+        <v>1.049690274686088</v>
       </c>
       <c r="F6">
-        <v>1.030244372847251</v>
+        <v>1.064714727240329</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.045011417760679</v>
+        <v>1.039052564820106</v>
       </c>
       <c r="J6">
-        <v>1.029983071992661</v>
+        <v>1.057383762626949</v>
       </c>
       <c r="K6">
-        <v>1.038037289519313</v>
+        <v>1.058378261421791</v>
       </c>
       <c r="L6">
-        <v>1.024719084927223</v>
+        <v>1.052080492083909</v>
       </c>
       <c r="M6">
-        <v>1.039738943373089</v>
+        <v>1.067069494015104</v>
       </c>
       <c r="N6">
         <v>1.005712725503983</v>
@@ -623,37 +623,37 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C7">
-        <v>1.008774259377221</v>
+        <v>1.05251148406419</v>
       </c>
       <c r="D7">
-        <v>1.026463791610436</v>
+        <v>1.055582823630303</v>
       </c>
       <c r="E7">
-        <v>1.012850872156196</v>
+        <v>1.049229383419868</v>
       </c>
       <c r="F7">
-        <v>1.027888895302633</v>
+        <v>1.064222233146748</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.044276342193573</v>
+        <v>1.038933881233967</v>
       </c>
       <c r="J7">
-        <v>1.02795014137225</v>
+        <v>1.056963382833779</v>
       </c>
       <c r="K7">
-        <v>1.036250080513725</v>
+        <v>1.058017576721558</v>
       </c>
       <c r="L7">
-        <v>1.022793683481317</v>
+        <v>1.051679664929409</v>
       </c>
       <c r="M7">
-        <v>1.037659093659219</v>
+        <v>1.066636190262356</v>
       </c>
       <c r="N7">
         <v>1.005712725503983</v>
@@ -664,37 +664,37 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C8">
-        <v>0.9974692801405931</v>
+        <v>1.050283641094669</v>
       </c>
       <c r="D8">
-        <v>1.017560161202762</v>
+        <v>1.053821659544516</v>
       </c>
       <c r="E8">
-        <v>1.003328083869593</v>
+        <v>1.047299081874204</v>
       </c>
       <c r="F8">
-        <v>1.017717836731852</v>
+        <v>1.062159710217081</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.041068045552647</v>
+        <v>1.038432946356401</v>
       </c>
       <c r="J8">
-        <v>1.019151148760456</v>
+        <v>1.055200986471818</v>
       </c>
       <c r="K8">
-        <v>1.028507408663179</v>
+        <v>1.056504287985325</v>
       </c>
       <c r="L8">
-        <v>1.014463162079331</v>
+        <v>1.04999939429882</v>
       </c>
       <c r="M8">
-        <v>1.028663040068772</v>
+        <v>1.064820074503731</v>
       </c>
       <c r="N8">
         <v>1.005712725503983</v>
@@ -705,37 +705,37 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C9">
-        <v>0.9759090947207288</v>
+        <v>1.046339576494525</v>
       </c>
       <c r="D9">
-        <v>1.000607672456659</v>
+        <v>1.050700333107754</v>
       </c>
       <c r="E9">
-        <v>0.9852248773917528</v>
+        <v>1.043882467239554</v>
       </c>
       <c r="F9">
-        <v>0.9983840951119347</v>
+        <v>1.058509587237848</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.03483865350148</v>
+        <v>1.03753170998789</v>
       </c>
       <c r="J9">
-        <v>1.002342217914399</v>
+        <v>1.052074875273023</v>
       </c>
       <c r="K9">
-        <v>1.013690898286901</v>
+        <v>1.053815690597578</v>
       </c>
       <c r="L9">
-        <v>0.9985623073067472</v>
+        <v>1.047019543998641</v>
       </c>
       <c r="M9">
-        <v>1.01150344376326</v>
+        <v>1.061600442908638</v>
       </c>
       <c r="N9">
         <v>1.005712725503983</v>
@@ -746,37 +746,37 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C10">
-        <v>0.960182831738737</v>
+        <v>1.043697091475469</v>
       </c>
       <c r="D10">
-        <v>0.9882750119660667</v>
+        <v>1.048606828285333</v>
       </c>
       <c r="E10">
-        <v>0.9720713284168739</v>
+        <v>1.041593897322076</v>
       </c>
       <c r="F10">
-        <v>0.9843380080779937</v>
+        <v>1.056064959705235</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.030225989181822</v>
+        <v>1.036918224592824</v>
       </c>
       <c r="J10">
-        <v>0.9900704016690166</v>
+        <v>1.049976374322297</v>
       </c>
       <c r="K10">
-        <v>1.002859241601231</v>
+        <v>1.052007980689353</v>
       </c>
       <c r="L10">
-        <v>0.9869638421002895</v>
+        <v>1.045019627900092</v>
       </c>
       <c r="M10">
-        <v>0.9989959221464063</v>
+        <v>1.059440367722662</v>
       </c>
       <c r="N10">
         <v>1.005712725503983</v>
@@ -787,37 +787,37 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C11">
-        <v>0.952983355893439</v>
+        <v>1.042549580245487</v>
       </c>
       <c r="D11">
-        <v>0.9826405524726923</v>
+        <v>1.047697197409005</v>
       </c>
       <c r="E11">
-        <v>0.9660648907291196</v>
+        <v>1.040600213796262</v>
       </c>
       <c r="F11">
-        <v>0.9779244528110744</v>
+        <v>1.055003601685753</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.028099777425508</v>
+        <v>1.036649529227562</v>
       </c>
       <c r="J11">
-        <v>0.9844518841345163</v>
+        <v>1.049064140758654</v>
       </c>
       <c r="K11">
-        <v>0.9978974397512136</v>
+        <v>1.051221472363606</v>
       </c>
       <c r="L11">
-        <v>0.9816564614901533</v>
+        <v>1.044150346952669</v>
       </c>
       <c r="M11">
-        <v>0.99327504518303</v>
+        <v>1.058501656444982</v>
       </c>
       <c r="N11">
         <v>1.005712725503983</v>
@@ -828,37 +828,37 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C12">
-        <v>0.9502434555359436</v>
+        <v>1.042122832705173</v>
       </c>
       <c r="D12">
-        <v>0.9804983333605477</v>
+        <v>1.047358838809663</v>
       </c>
       <c r="E12">
-        <v>0.9637816267448859</v>
+        <v>1.040230695085916</v>
       </c>
       <c r="F12">
-        <v>0.9754865051945849</v>
+        <v>1.054608929823063</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.027288606019083</v>
+        <v>1.036549261190091</v>
       </c>
       <c r="J12">
-        <v>0.9823137949140687</v>
+        <v>1.04872474846828</v>
       </c>
       <c r="K12">
-        <v>0.9960089407913629</v>
+        <v>1.050928753262771</v>
       </c>
       <c r="L12">
-        <v>0.979637240311281</v>
+        <v>1.043826949702147</v>
       </c>
       <c r="M12">
-        <v>0.9910989121476991</v>
+        <v>1.058152456959303</v>
       </c>
       <c r="N12">
         <v>1.005712725503983</v>
@@ -869,37 +869,37 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C13">
-        <v>0.9508342741486027</v>
+        <v>1.042214394862573</v>
       </c>
       <c r="D13">
-        <v>0.9809601704916328</v>
+        <v>1.047431439830911</v>
       </c>
       <c r="E13">
-        <v>0.9642738556865711</v>
+        <v>1.04030997732361</v>
       </c>
       <c r="F13">
-        <v>0.9760120774226551</v>
+        <v>1.054693608225575</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.027463609992678</v>
+        <v>1.03657079002456</v>
       </c>
       <c r="J13">
-        <v>0.9827748314323669</v>
+        <v>1.048797574263854</v>
       </c>
       <c r="K13">
-        <v>0.9964161710960557</v>
+        <v>1.050991568684906</v>
       </c>
       <c r="L13">
-        <v>0.9800726235510933</v>
+        <v>1.043896342661316</v>
       </c>
       <c r="M13">
-        <v>0.9915681097923214</v>
+        <v>1.058227385171448</v>
       </c>
       <c r="N13">
         <v>1.005712725503983</v>
@@ -910,37 +910,37 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C14">
-        <v>0.9527582606067432</v>
+        <v>1.042514315669563</v>
       </c>
       <c r="D14">
-        <v>0.9824645149404447</v>
+        <v>1.047669238461959</v>
       </c>
       <c r="E14">
-        <v>0.9658772555682282</v>
+        <v>1.040569677911028</v>
       </c>
       <c r="F14">
-        <v>0.9777241043801282</v>
+        <v>1.054970986960327</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.028033175340124</v>
+        <v>1.036641250501196</v>
       </c>
       <c r="J14">
-        <v>0.9842762260199845</v>
+        <v>1.049036097737302</v>
       </c>
       <c r="K14">
-        <v>0.9977422930739904</v>
+        <v>1.051197287898914</v>
       </c>
       <c r="L14">
-        <v>0.9814905594723158</v>
+        <v>1.044123625255199</v>
       </c>
       <c r="M14">
-        <v>0.9930962426678063</v>
+        <v>1.05847280218991</v>
       </c>
       <c r="N14">
         <v>1.005712725503983</v>
@@ -951,37 +951,37 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C15">
-        <v>0.9539347531168992</v>
+        <v>1.042699038633472</v>
       </c>
       <c r="D15">
-        <v>0.9833846869390035</v>
+        <v>1.047815689952704</v>
       </c>
       <c r="E15">
-        <v>0.966858064900937</v>
+        <v>1.040729631941973</v>
       </c>
       <c r="F15">
-        <v>0.9787713718673146</v>
+        <v>1.055141830961384</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.028381200657642</v>
+        <v>1.036684602102939</v>
       </c>
       <c r="J15">
-        <v>0.9851943354639029</v>
+        <v>1.049182986929536</v>
       </c>
       <c r="K15">
-        <v>0.9985531833008221</v>
+        <v>1.051323961808072</v>
       </c>
       <c r="L15">
-        <v>0.9823576960632108</v>
+        <v>1.044263593963278</v>
       </c>
       <c r="M15">
-        <v>0.9940308242014539</v>
+        <v>1.058623942410754</v>
       </c>
       <c r="N15">
         <v>1.005712725503983</v>
@@ -992,37 +992,37 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C16">
-        <v>0.9606518423481479</v>
+        <v>1.043773177231833</v>
       </c>
       <c r="D16">
-        <v>0.9886423341829369</v>
+        <v>1.048667130618234</v>
       </c>
       <c r="E16">
-        <v>0.9724629574343983</v>
+        <v>1.041659786536608</v>
       </c>
       <c r="F16">
-        <v>0.9847561917789697</v>
+        <v>1.056135338073073</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.030364216916494</v>
+        <v>1.036935992368214</v>
       </c>
       <c r="J16">
-        <v>0.9904364281916983</v>
+        <v>1.050036840051349</v>
       </c>
       <c r="K16">
-        <v>1.003182437292471</v>
+        <v>1.052060098603827</v>
       </c>
       <c r="L16">
-        <v>0.987309660952688</v>
+        <v>1.045077248647073</v>
       </c>
       <c r="M16">
-        <v>0.9993687373333306</v>
+        <v>1.059502594583707</v>
       </c>
       <c r="N16">
         <v>1.005712725503983</v>
@@ -1033,37 +1033,37 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C17">
-        <v>0.9647562512451099</v>
+        <v>1.044446062318364</v>
       </c>
       <c r="D17">
-        <v>0.9918581660931061</v>
+        <v>1.049200371259041</v>
       </c>
       <c r="E17">
-        <v>0.9758919260345814</v>
+        <v>1.042242511838029</v>
       </c>
       <c r="F17">
-        <v>0.98841771552434</v>
+        <v>1.05675777531013</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.031572265914841</v>
+        <v>1.037092862839226</v>
       </c>
       <c r="J17">
-        <v>0.9936395702217735</v>
+        <v>1.050571475684805</v>
       </c>
       <c r="K17">
-        <v>1.00601047320512</v>
+        <v>1.05252084441102</v>
       </c>
       <c r="L17">
-        <v>0.990336286796992</v>
+        <v>1.045586740266394</v>
       </c>
       <c r="M17">
-        <v>1.002631918251528</v>
+        <v>1.060052835437792</v>
       </c>
       <c r="N17">
         <v>1.005712725503983</v>
@@ -1074,37 +1074,37 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C18">
-        <v>0.9671132033854611</v>
+        <v>1.044838227660146</v>
       </c>
       <c r="D18">
-        <v>0.9937058937591886</v>
+        <v>1.049511100305223</v>
       </c>
       <c r="E18">
-        <v>0.9778624078720661</v>
+        <v>1.042582144258262</v>
       </c>
       <c r="F18">
-        <v>0.990521878380041</v>
+        <v>1.057120561381946</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.032264617682746</v>
+        <v>1.037184068520771</v>
       </c>
       <c r="J18">
-        <v>0.9954789099071846</v>
+        <v>1.050882976080775</v>
       </c>
       <c r="K18">
-        <v>1.007634163379766</v>
+        <v>1.052789227753086</v>
       </c>
       <c r="L18">
-        <v>0.9920745287640195</v>
+        <v>1.045883600075099</v>
       </c>
       <c r="M18">
-        <v>1.004506247061316</v>
+        <v>1.060373455873156</v>
       </c>
       <c r="N18">
         <v>1.005712725503983</v>
@@ -1115,37 +1115,37 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C19">
-        <v>0.9679107706037804</v>
+        <v>1.04497189257511</v>
       </c>
       <c r="D19">
-        <v>0.9943313113775275</v>
+        <v>1.049617000123167</v>
       </c>
       <c r="E19">
-        <v>0.9785294268845037</v>
+        <v>1.042697906164856</v>
       </c>
       <c r="F19">
-        <v>0.9912341559689656</v>
+        <v>1.057244216470794</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.032498664852281</v>
+        <v>1.037215117520278</v>
       </c>
       <c r="J19">
-        <v>0.9961013063820461</v>
+        <v>1.050989131758015</v>
       </c>
       <c r="K19">
-        <v>1.008183543333703</v>
+        <v>1.052880678463466</v>
       </c>
       <c r="L19">
-        <v>0.9926627593505561</v>
+        <v>1.04598476799142</v>
       </c>
       <c r="M19">
-        <v>1.005140568209637</v>
+        <v>1.060482724260236</v>
       </c>
       <c r="N19">
         <v>1.005712725503983</v>
@@ -1156,37 +1156,37 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C20">
-        <v>0.9643197699677679</v>
+        <v>1.044373901031187</v>
       </c>
       <c r="D20">
-        <v>0.991516069473141</v>
+        <v>1.049143190818798</v>
       </c>
       <c r="E20">
-        <v>0.9755271263414348</v>
+        <v>1.042180018052264</v>
       </c>
       <c r="F20">
-        <v>0.9880281704769071</v>
+        <v>1.056691021812783</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.031443937800016</v>
+        <v>1.037076062583217</v>
       </c>
       <c r="J20">
-        <v>0.9932989386182884</v>
+        <v>1.050514149959735</v>
       </c>
       <c r="K20">
-        <v>1.00570975723945</v>
+        <v>1.05247144825293</v>
       </c>
       <c r="L20">
-        <v>0.9900143988125719</v>
+        <v>1.045532109614007</v>
       </c>
       <c r="M20">
-        <v>1.00228484807136</v>
+        <v>1.059993833580549</v>
       </c>
       <c r="N20">
         <v>1.005712725503983</v>
@@ -1197,37 +1197,37 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C21">
-        <v>0.952193571417202</v>
+        <v>1.042426010690994</v>
       </c>
       <c r="D21">
-        <v>0.9820229301413468</v>
+        <v>1.04759922606441</v>
       </c>
       <c r="E21">
-        <v>0.9654065843017541</v>
+        <v>1.040493214264008</v>
       </c>
       <c r="F21">
-        <v>0.9772215439181103</v>
+        <v>1.054889317982487</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.027866061418943</v>
+        <v>1.036620514450325</v>
       </c>
       <c r="J21">
-        <v>0.9838355614121271</v>
+        <v>1.048965873747048</v>
       </c>
       <c r="K21">
-        <v>0.997353079643584</v>
+        <v>1.051136724670758</v>
       </c>
       <c r="L21">
-        <v>0.9810743771303316</v>
+        <v>1.044056710299003</v>
       </c>
       <c r="M21">
-        <v>0.9926477047182326</v>
+        <v>1.058400547453964</v>
       </c>
       <c r="N21">
         <v>1.005712725503983</v>
@@ -1238,37 +1238,37 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C22">
-        <v>0.944184766664349</v>
+        <v>1.041198331824135</v>
       </c>
       <c r="D22">
-        <v>0.97576559917966</v>
+        <v>1.046625684578137</v>
       </c>
       <c r="E22">
-        <v>0.9587378930508069</v>
+        <v>1.03943021534984</v>
       </c>
       <c r="F22">
-        <v>0.9701012277905456</v>
+        <v>1.053753984883721</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.025491406961735</v>
+        <v>1.036331414663115</v>
       </c>
       <c r="J22">
-        <v>0.9775864268072836</v>
+        <v>1.047989233731396</v>
       </c>
       <c r="K22">
-        <v>0.9918329321408782</v>
+        <v>1.050294199669673</v>
       </c>
       <c r="L22">
-        <v>0.9751736048280991</v>
+        <v>1.043126125729924</v>
       </c>
       <c r="M22">
-        <v>0.9862892010261384</v>
+        <v>1.057395768855433</v>
       </c>
       <c r="N22">
         <v>1.005712725503983</v>
@@ -1279,37 +1279,37 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C23">
-        <v>0.9484695575439408</v>
+        <v>1.041849433623998</v>
       </c>
       <c r="D23">
-        <v>0.9791120316633344</v>
+        <v>1.047142045468666</v>
       </c>
       <c r="E23">
-        <v>0.96230414673522</v>
+        <v>1.039993966396084</v>
       </c>
       <c r="F23">
-        <v>0.9739089535797663</v>
+        <v>1.054356090613272</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.026762889325727</v>
+        <v>1.036484927199071</v>
       </c>
       <c r="J23">
-        <v>0.9809296004247157</v>
+        <v>1.048507274277905</v>
       </c>
       <c r="K23">
-        <v>0.9947862516082346</v>
+        <v>1.050741157347508</v>
       </c>
       <c r="L23">
-        <v>0.9783301378326625</v>
+        <v>1.043619728898149</v>
       </c>
       <c r="M23">
-        <v>0.989690354610644</v>
+        <v>1.057928710904593</v>
       </c>
       <c r="N23">
         <v>1.005712725503983</v>
@@ -1320,37 +1320,37 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C24">
-        <v>0.9645171111346433</v>
+        <v>1.044406508590583</v>
       </c>
       <c r="D24">
-        <v>0.9916707344021864</v>
+        <v>1.049169029129155</v>
       </c>
       <c r="E24">
-        <v>0.9756920546190919</v>
+        <v>1.04220825711172</v>
       </c>
       <c r="F24">
-        <v>0.9882042861592659</v>
+        <v>1.056721185682366</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.031501961558836</v>
+        <v>1.037083654804856</v>
       </c>
       <c r="J24">
-        <v>0.9934529446002928</v>
+        <v>1.05054005404878</v>
       </c>
       <c r="K24">
-        <v>1.005845717398388</v>
+        <v>1.052493769368765</v>
       </c>
       <c r="L24">
-        <v>0.9901599296345649</v>
+        <v>1.045556795836962</v>
       </c>
       <c r="M24">
-        <v>1.002441763464966</v>
+        <v>1.060020494986667</v>
       </c>
       <c r="N24">
         <v>1.005712725503983</v>
@@ -1361,37 +1361,37 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C25">
-        <v>0.9817008085006492</v>
+        <v>1.047361463783018</v>
       </c>
       <c r="D25">
-        <v>1.005157151126748</v>
+        <v>1.051509453478215</v>
       </c>
       <c r="E25">
-        <v>0.9900801959585889</v>
+        <v>1.044767606286391</v>
       </c>
       <c r="F25">
-        <v>1.00356920618138</v>
+        <v>1.059455158941106</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.036524202715482</v>
+        <v>1.037766917571452</v>
       </c>
       <c r="J25">
-        <v>1.006860106566844</v>
+        <v>1.052885547361144</v>
       </c>
       <c r="K25">
-        <v>1.017675933028663</v>
+        <v>1.054513417266077</v>
       </c>
       <c r="L25">
-        <v>1.002834481057388</v>
+        <v>1.047792217082301</v>
       </c>
       <c r="M25">
-        <v>1.01611236634892</v>
+        <v>1.062435156523321</v>
       </c>
       <c r="N25">
         <v>1.005712725503983</v>

--- a/Code/Results/Cases/Case_5_135/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_5_135/res_bus/vm_pu.xlsx
@@ -418,37 +418,37 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C2">
-        <v>1.04970888862596</v>
+        <v>0.9944556970609344</v>
       </c>
       <c r="D2">
-        <v>1.05336706752593</v>
+        <v>1.015188125991969</v>
       </c>
       <c r="E2">
-        <v>1.04680113597715</v>
+        <v>1.000793036598304</v>
       </c>
       <c r="F2">
-        <v>1.061627691383946</v>
+        <v>1.015010327459342</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.038302735358962</v>
+        <v>1.040205343116719</v>
       </c>
       <c r="J2">
-        <v>1.054745901642773</v>
+        <v>1.01680351137667</v>
       </c>
       <c r="K2">
-        <v>1.056113232328338</v>
+        <v>1.026439844839816</v>
       </c>
       <c r="L2">
-        <v>1.049565555426539</v>
+        <v>1.012241334207198</v>
       </c>
       <c r="M2">
-        <v>1.064351237256879</v>
+        <v>1.026264431576753</v>
       </c>
       <c r="N2">
         <v>1.005712725503983</v>
@@ -459,37 +459,37 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C3">
-        <v>1.051408124854707</v>
+        <v>1.003248326361715</v>
       </c>
       <c r="D3">
-        <v>1.054710776521811</v>
+        <v>1.02211070921834</v>
       </c>
       <c r="E3">
-        <v>1.048273350027508</v>
+        <v>1.00819355450765</v>
       </c>
       <c r="F3">
-        <v>1.063200686143314</v>
+        <v>1.022914443645877</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.038686550608598</v>
+        <v>1.042713913110831</v>
       </c>
       <c r="J3">
-        <v>1.056090861217224</v>
+        <v>1.023650828726012</v>
       </c>
       <c r="K3">
-        <v>1.057268612926101</v>
+        <v>1.032468284912081</v>
       </c>
       <c r="L3">
-        <v>1.050847771178331</v>
+        <v>1.018722659827452</v>
       </c>
       <c r="M3">
-        <v>1.065736980932223</v>
+        <v>1.033262290334576</v>
       </c>
       <c r="N3">
         <v>1.005712725503983</v>
@@ -500,37 +500,37 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C4">
-        <v>1.052505325776799</v>
+        <v>1.008743802332489</v>
       </c>
       <c r="D4">
-        <v>1.055577957420256</v>
+        <v>1.026439794733865</v>
       </c>
       <c r="E4">
-        <v>1.049224047233271</v>
+        <v>1.0128251895509</v>
       </c>
       <c r="F4">
-        <v>1.064216531138524</v>
+        <v>1.027861463431367</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.038932505001579</v>
+        <v>1.044267763032155</v>
       </c>
       <c r="J4">
-        <v>1.056958514722632</v>
+        <v>1.027926454857834</v>
       </c>
       <c r="K4">
-        <v>1.058013399260951</v>
+        <v>1.036229253022038</v>
       </c>
       <c r="L4">
-        <v>1.051675023326692</v>
+        <v>1.022771251428474</v>
       </c>
       <c r="M4">
-        <v>1.066631172740828</v>
+        <v>1.037634863607937</v>
       </c>
       <c r="N4">
         <v>1.005712725503983</v>
@@ -541,37 +541,37 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.052966046494881</v>
+        <v>1.011010687113343</v>
       </c>
       <c r="D5">
-        <v>1.055941981271521</v>
+        <v>1.028225966570919</v>
       </c>
       <c r="E5">
-        <v>1.049623269633532</v>
+        <v>1.014737110098964</v>
       </c>
       <c r="F5">
-        <v>1.064643126923598</v>
+        <v>1.029903620110736</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.039035332959586</v>
+        <v>1.044905274950493</v>
       </c>
       <c r="J5">
-        <v>1.057322657464131</v>
+        <v>1.029689096830799</v>
       </c>
       <c r="K5">
-        <v>1.058325840118521</v>
+        <v>1.037778889754435</v>
       </c>
       <c r="L5">
-        <v>1.052022228145743</v>
+        <v>1.02444064238595</v>
       </c>
       <c r="M5">
-        <v>1.067006507577721</v>
+        <v>1.039438150338731</v>
       </c>
       <c r="N5">
         <v>1.005712725503983</v>
@@ -582,37 +582,37 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.053043372077187</v>
+        <v>1.011388843429356</v>
       </c>
       <c r="D6">
-        <v>1.056003071128438</v>
+        <v>1.028523952163044</v>
       </c>
       <c r="E6">
-        <v>1.049690274686088</v>
+        <v>1.015056129242047</v>
       </c>
       <c r="F6">
-        <v>1.064714727240329</v>
+        <v>1.030244372847252</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.039052564820106</v>
+        <v>1.04501141776068</v>
       </c>
       <c r="J6">
-        <v>1.057383762626949</v>
+        <v>1.029983071992662</v>
       </c>
       <c r="K6">
-        <v>1.058378261421791</v>
+        <v>1.038037289519314</v>
       </c>
       <c r="L6">
-        <v>1.052080492083909</v>
+        <v>1.024719084927224</v>
       </c>
       <c r="M6">
-        <v>1.067069494015104</v>
+        <v>1.03973894337309</v>
       </c>
       <c r="N6">
         <v>1.005712725503983</v>
@@ -623,37 +623,37 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C7">
-        <v>1.05251148406419</v>
+        <v>1.008774259377222</v>
       </c>
       <c r="D7">
-        <v>1.055582823630303</v>
+        <v>1.026463791610436</v>
       </c>
       <c r="E7">
-        <v>1.049229383419868</v>
+        <v>1.012850872156197</v>
       </c>
       <c r="F7">
-        <v>1.064222233146748</v>
+        <v>1.027888895302634</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.038933881233967</v>
+        <v>1.044276342193574</v>
       </c>
       <c r="J7">
-        <v>1.056963382833779</v>
+        <v>1.02795014137225</v>
       </c>
       <c r="K7">
-        <v>1.058017576721558</v>
+        <v>1.036250080513726</v>
       </c>
       <c r="L7">
-        <v>1.051679664929409</v>
+        <v>1.022793683481318</v>
       </c>
       <c r="M7">
-        <v>1.066636190262356</v>
+        <v>1.03765909365922</v>
       </c>
       <c r="N7">
         <v>1.005712725503983</v>
@@ -664,37 +664,37 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C8">
-        <v>1.050283641094669</v>
+        <v>0.9974692801405904</v>
       </c>
       <c r="D8">
-        <v>1.053821659544516</v>
+        <v>1.017560161202759</v>
       </c>
       <c r="E8">
-        <v>1.047299081874204</v>
+        <v>1.00332808386959</v>
       </c>
       <c r="F8">
-        <v>1.062159710217081</v>
+        <v>1.017717836731849</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.038432946356401</v>
+        <v>1.041068045552646</v>
       </c>
       <c r="J8">
-        <v>1.055200986471818</v>
+        <v>1.019151148760454</v>
       </c>
       <c r="K8">
-        <v>1.056504287985325</v>
+        <v>1.028507408663177</v>
       </c>
       <c r="L8">
-        <v>1.04999939429882</v>
+        <v>1.014463162079329</v>
       </c>
       <c r="M8">
-        <v>1.064820074503731</v>
+        <v>1.02866304006877</v>
       </c>
       <c r="N8">
         <v>1.005712725503983</v>
@@ -705,37 +705,37 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C9">
-        <v>1.046339576494525</v>
+        <v>0.9759090947207298</v>
       </c>
       <c r="D9">
-        <v>1.050700333107754</v>
+        <v>1.00060767245666</v>
       </c>
       <c r="E9">
-        <v>1.043882467239554</v>
+        <v>0.9852248773917532</v>
       </c>
       <c r="F9">
-        <v>1.058509587237848</v>
+        <v>0.9983840951119358</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.03753170998789</v>
+        <v>1.034838653501481</v>
       </c>
       <c r="J9">
-        <v>1.052074875273023</v>
+        <v>1.0023422179144</v>
       </c>
       <c r="K9">
-        <v>1.053815690597578</v>
+        <v>1.013690898286902</v>
       </c>
       <c r="L9">
-        <v>1.047019543998641</v>
+        <v>0.9985623073067479</v>
       </c>
       <c r="M9">
-        <v>1.061600442908638</v>
+        <v>1.011503443763261</v>
       </c>
       <c r="N9">
         <v>1.005712725503983</v>
@@ -746,37 +746,37 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C10">
-        <v>1.043697091475469</v>
+        <v>0.9601828317387384</v>
       </c>
       <c r="D10">
-        <v>1.048606828285333</v>
+        <v>0.988275011966068</v>
       </c>
       <c r="E10">
-        <v>1.041593897322076</v>
+        <v>0.9720713284168753</v>
       </c>
       <c r="F10">
-        <v>1.056064959705235</v>
+        <v>0.9843380080779952</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.036918224592824</v>
+        <v>1.030225989181822</v>
       </c>
       <c r="J10">
-        <v>1.049976374322297</v>
+        <v>0.9900704016690182</v>
       </c>
       <c r="K10">
-        <v>1.052007980689353</v>
+        <v>1.002859241601233</v>
       </c>
       <c r="L10">
-        <v>1.045019627900092</v>
+        <v>0.9869638421002909</v>
       </c>
       <c r="M10">
-        <v>1.059440367722662</v>
+        <v>0.9989959221464075</v>
       </c>
       <c r="N10">
         <v>1.005712725503983</v>
@@ -787,37 +787,37 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C11">
-        <v>1.042549580245487</v>
+        <v>0.9529833558934393</v>
       </c>
       <c r="D11">
-        <v>1.047697197409005</v>
+        <v>0.9826405524726926</v>
       </c>
       <c r="E11">
-        <v>1.040600213796262</v>
+        <v>0.9660648907291204</v>
       </c>
       <c r="F11">
-        <v>1.055003601685753</v>
+        <v>0.977924452811075</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.036649529227562</v>
+        <v>1.028099777425508</v>
       </c>
       <c r="J11">
-        <v>1.049064140758654</v>
+        <v>0.9844518841345168</v>
       </c>
       <c r="K11">
-        <v>1.051221472363606</v>
+        <v>0.997897439751214</v>
       </c>
       <c r="L11">
-        <v>1.044150346952669</v>
+        <v>0.981656461490154</v>
       </c>
       <c r="M11">
-        <v>1.058501656444982</v>
+        <v>0.9932750451830306</v>
       </c>
       <c r="N11">
         <v>1.005712725503983</v>
@@ -828,37 +828,37 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C12">
-        <v>1.042122832705173</v>
+        <v>0.9502434555359447</v>
       </c>
       <c r="D12">
-        <v>1.047358838809663</v>
+        <v>0.9804983333605488</v>
       </c>
       <c r="E12">
-        <v>1.040230695085916</v>
+        <v>0.9637816267448872</v>
       </c>
       <c r="F12">
-        <v>1.054608929823063</v>
+        <v>0.9754865051945862</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.036549261190091</v>
+        <v>1.027288606019084</v>
       </c>
       <c r="J12">
-        <v>1.04872474846828</v>
+        <v>0.9823137949140697</v>
       </c>
       <c r="K12">
-        <v>1.050928753262771</v>
+        <v>0.9960089407913639</v>
       </c>
       <c r="L12">
-        <v>1.043826949702147</v>
+        <v>0.9796372403112823</v>
       </c>
       <c r="M12">
-        <v>1.058152456959303</v>
+        <v>0.9910989121477002</v>
       </c>
       <c r="N12">
         <v>1.005712725503983</v>
@@ -869,37 +869,37 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C13">
-        <v>1.042214394862573</v>
+        <v>0.950834274148604</v>
       </c>
       <c r="D13">
-        <v>1.047431439830911</v>
+        <v>0.9809601704916336</v>
       </c>
       <c r="E13">
-        <v>1.04030997732361</v>
+        <v>0.9642738556865721</v>
       </c>
       <c r="F13">
-        <v>1.054693608225575</v>
+        <v>0.9760120774226561</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.03657079002456</v>
+        <v>1.027463609992678</v>
       </c>
       <c r="J13">
-        <v>1.048797574263854</v>
+        <v>0.9827748314323681</v>
       </c>
       <c r="K13">
-        <v>1.050991568684906</v>
+        <v>0.9964161710960566</v>
       </c>
       <c r="L13">
-        <v>1.043896342661316</v>
+        <v>0.9800726235510941</v>
       </c>
       <c r="M13">
-        <v>1.058227385171448</v>
+        <v>0.9915681097923226</v>
       </c>
       <c r="N13">
         <v>1.005712725503983</v>
@@ -910,37 +910,37 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C14">
-        <v>1.042514315669563</v>
+        <v>0.952758260606742</v>
       </c>
       <c r="D14">
-        <v>1.047669238461959</v>
+        <v>0.9824645149404435</v>
       </c>
       <c r="E14">
-        <v>1.040569677911028</v>
+        <v>0.9658772555682271</v>
       </c>
       <c r="F14">
-        <v>1.054970986960327</v>
+        <v>0.9777241043801267</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.036641250501196</v>
+        <v>1.028033175340123</v>
       </c>
       <c r="J14">
-        <v>1.049036097737302</v>
+        <v>0.9842762260199833</v>
       </c>
       <c r="K14">
-        <v>1.051197287898914</v>
+        <v>0.9977422930739891</v>
       </c>
       <c r="L14">
-        <v>1.044123625255199</v>
+        <v>0.9814905594723144</v>
       </c>
       <c r="M14">
-        <v>1.05847280218991</v>
+        <v>0.9930962426678047</v>
       </c>
       <c r="N14">
         <v>1.005712725503983</v>
@@ -951,37 +951,37 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C15">
-        <v>1.042699038633472</v>
+        <v>0.9539347531169</v>
       </c>
       <c r="D15">
-        <v>1.047815689952704</v>
+        <v>0.9833846869390044</v>
       </c>
       <c r="E15">
-        <v>1.040729631941973</v>
+        <v>0.9668580649009375</v>
       </c>
       <c r="F15">
-        <v>1.055141830961384</v>
+        <v>0.9787713718673152</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.036684602102939</v>
+        <v>1.028381200657643</v>
       </c>
       <c r="J15">
-        <v>1.049182986929536</v>
+        <v>0.9851943354639038</v>
       </c>
       <c r="K15">
-        <v>1.051323961808072</v>
+        <v>0.998553183300823</v>
       </c>
       <c r="L15">
-        <v>1.044263593963278</v>
+        <v>0.9823576960632111</v>
       </c>
       <c r="M15">
-        <v>1.058623942410754</v>
+        <v>0.9940308242014547</v>
       </c>
       <c r="N15">
         <v>1.005712725503983</v>
@@ -992,37 +992,37 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C16">
-        <v>1.043773177231833</v>
+        <v>0.9606518423481466</v>
       </c>
       <c r="D16">
-        <v>1.048667130618234</v>
+        <v>0.9886423341829356</v>
       </c>
       <c r="E16">
-        <v>1.041659786536608</v>
+        <v>0.9724629574343967</v>
       </c>
       <c r="F16">
-        <v>1.056135338073073</v>
+        <v>0.9847561917789684</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.036935992368214</v>
+        <v>1.030364216916493</v>
       </c>
       <c r="J16">
-        <v>1.050036840051349</v>
+        <v>0.9904364281916969</v>
       </c>
       <c r="K16">
-        <v>1.052060098603827</v>
+        <v>1.00318243729247</v>
       </c>
       <c r="L16">
-        <v>1.045077248647073</v>
+        <v>0.9873096609526864</v>
       </c>
       <c r="M16">
-        <v>1.059502594583707</v>
+        <v>0.9993687373333294</v>
       </c>
       <c r="N16">
         <v>1.005712725503983</v>
@@ -1033,37 +1033,37 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C17">
-        <v>1.044446062318364</v>
+        <v>0.9647562512451102</v>
       </c>
       <c r="D17">
-        <v>1.049200371259041</v>
+        <v>0.9918581660931063</v>
       </c>
       <c r="E17">
-        <v>1.042242511838029</v>
+        <v>0.9758919260345816</v>
       </c>
       <c r="F17">
-        <v>1.05675777531013</v>
+        <v>0.9884177155243402</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.037092862839226</v>
+        <v>1.031572265914841</v>
       </c>
       <c r="J17">
-        <v>1.050571475684805</v>
+        <v>0.9936395702217737</v>
       </c>
       <c r="K17">
-        <v>1.05252084441102</v>
+        <v>1.00601047320512</v>
       </c>
       <c r="L17">
-        <v>1.045586740266394</v>
+        <v>0.990336286796992</v>
       </c>
       <c r="M17">
-        <v>1.060052835437792</v>
+        <v>1.002631918251528</v>
       </c>
       <c r="N17">
         <v>1.005712725503983</v>
@@ -1074,37 +1074,37 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C18">
-        <v>1.044838227660146</v>
+        <v>0.9671132033854607</v>
       </c>
       <c r="D18">
-        <v>1.049511100305223</v>
+        <v>0.9937058937591876</v>
       </c>
       <c r="E18">
-        <v>1.042582144258262</v>
+        <v>0.9778624078720657</v>
       </c>
       <c r="F18">
-        <v>1.057120561381946</v>
+        <v>0.9905218783800397</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.037184068520771</v>
+        <v>1.032264617682746</v>
       </c>
       <c r="J18">
-        <v>1.050882976080775</v>
+        <v>0.9954789099071837</v>
       </c>
       <c r="K18">
-        <v>1.052789227753086</v>
+        <v>1.007634163379766</v>
       </c>
       <c r="L18">
-        <v>1.045883600075099</v>
+        <v>0.992074528764019</v>
       </c>
       <c r="M18">
-        <v>1.060373455873156</v>
+        <v>1.004506247061315</v>
       </c>
       <c r="N18">
         <v>1.005712725503983</v>
@@ -1115,37 +1115,37 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C19">
-        <v>1.04497189257511</v>
+        <v>0.9679107706037823</v>
       </c>
       <c r="D19">
-        <v>1.049617000123167</v>
+        <v>0.9943313113775291</v>
       </c>
       <c r="E19">
-        <v>1.042697906164856</v>
+        <v>0.9785294268845058</v>
       </c>
       <c r="F19">
-        <v>1.057244216470794</v>
+        <v>0.9912341559689672</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.037215117520278</v>
+        <v>1.032498664852282</v>
       </c>
       <c r="J19">
-        <v>1.050989131758015</v>
+        <v>0.996101306382048</v>
       </c>
       <c r="K19">
-        <v>1.052880678463466</v>
+        <v>1.008183543333705</v>
       </c>
       <c r="L19">
-        <v>1.04598476799142</v>
+        <v>0.9926627593505579</v>
       </c>
       <c r="M19">
-        <v>1.060482724260236</v>
+        <v>1.005140568209639</v>
       </c>
       <c r="N19">
         <v>1.005712725503983</v>
@@ -1156,37 +1156,37 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C20">
-        <v>1.044373901031187</v>
+        <v>0.9643197699677653</v>
       </c>
       <c r="D20">
-        <v>1.049143190818798</v>
+        <v>0.9915160694731391</v>
       </c>
       <c r="E20">
-        <v>1.042180018052264</v>
+        <v>0.9755271263414322</v>
       </c>
       <c r="F20">
-        <v>1.056691021812783</v>
+        <v>0.9880281704769048</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.037076062583217</v>
+        <v>1.031443937800015</v>
       </c>
       <c r="J20">
-        <v>1.050514149959735</v>
+        <v>0.993298938618286</v>
       </c>
       <c r="K20">
-        <v>1.05247144825293</v>
+        <v>1.005709757239449</v>
       </c>
       <c r="L20">
-        <v>1.045532109614007</v>
+        <v>0.9900143988125691</v>
       </c>
       <c r="M20">
-        <v>1.059993833580549</v>
+        <v>1.002284848071358</v>
       </c>
       <c r="N20">
         <v>1.005712725503983</v>
@@ -1197,37 +1197,37 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C21">
-        <v>1.042426010690994</v>
+        <v>0.9521935714172011</v>
       </c>
       <c r="D21">
-        <v>1.04759922606441</v>
+        <v>0.9820229301413459</v>
       </c>
       <c r="E21">
-        <v>1.040493214264008</v>
+        <v>0.9654065843017534</v>
       </c>
       <c r="F21">
-        <v>1.054889317982487</v>
+        <v>0.9772215439181093</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.036620514450325</v>
+        <v>1.027866061418943</v>
       </c>
       <c r="J21">
-        <v>1.048965873747048</v>
+        <v>0.9838355614121262</v>
       </c>
       <c r="K21">
-        <v>1.051136724670758</v>
+        <v>0.9973530796435833</v>
       </c>
       <c r="L21">
-        <v>1.044056710299003</v>
+        <v>0.9810743771303307</v>
       </c>
       <c r="M21">
-        <v>1.058400547453964</v>
+        <v>0.9926477047182316</v>
       </c>
       <c r="N21">
         <v>1.005712725503983</v>
@@ -1238,37 +1238,37 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C22">
-        <v>1.041198331824135</v>
+        <v>0.9441847666643477</v>
       </c>
       <c r="D22">
-        <v>1.046625684578137</v>
+        <v>0.9757655991796593</v>
       </c>
       <c r="E22">
-        <v>1.03943021534984</v>
+        <v>0.9587378930508057</v>
       </c>
       <c r="F22">
-        <v>1.053753984883721</v>
+        <v>0.9701012277905446</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.036331414663115</v>
+        <v>1.025491406961735</v>
       </c>
       <c r="J22">
-        <v>1.047989233731396</v>
+        <v>0.9775864268072826</v>
       </c>
       <c r="K22">
-        <v>1.050294199669673</v>
+        <v>0.9918329321408775</v>
       </c>
       <c r="L22">
-        <v>1.043126125729924</v>
+        <v>0.9751736048280981</v>
       </c>
       <c r="M22">
-        <v>1.057395768855433</v>
+        <v>0.9862892010261375</v>
       </c>
       <c r="N22">
         <v>1.005712725503983</v>
@@ -1279,37 +1279,37 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C23">
-        <v>1.041849433623998</v>
+        <v>0.9484695575439408</v>
       </c>
       <c r="D23">
-        <v>1.047142045468666</v>
+        <v>0.9791120316633339</v>
       </c>
       <c r="E23">
-        <v>1.039993966396084</v>
+        <v>0.9623041467352197</v>
       </c>
       <c r="F23">
-        <v>1.054356090613272</v>
+        <v>0.9739089535797664</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.036484927199071</v>
+        <v>1.026762889325727</v>
       </c>
       <c r="J23">
-        <v>1.048507274277905</v>
+        <v>0.9809296004247154</v>
       </c>
       <c r="K23">
-        <v>1.050741157347508</v>
+        <v>0.9947862516082343</v>
       </c>
       <c r="L23">
-        <v>1.043619728898149</v>
+        <v>0.9783301378326622</v>
       </c>
       <c r="M23">
-        <v>1.057928710904593</v>
+        <v>0.989690354610644</v>
       </c>
       <c r="N23">
         <v>1.005712725503983</v>
@@ -1320,37 +1320,37 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C24">
-        <v>1.044406508590583</v>
+        <v>0.9645171111346444</v>
       </c>
       <c r="D24">
-        <v>1.049169029129155</v>
+        <v>0.9916707344021874</v>
       </c>
       <c r="E24">
-        <v>1.04220825711172</v>
+        <v>0.9756920546190933</v>
       </c>
       <c r="F24">
-        <v>1.056721185682366</v>
+        <v>0.9882042861592673</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.037083654804856</v>
+        <v>1.031501961558837</v>
       </c>
       <c r="J24">
-        <v>1.05054005404878</v>
+        <v>0.9934529446002939</v>
       </c>
       <c r="K24">
-        <v>1.052493769368765</v>
+        <v>1.005845717398389</v>
       </c>
       <c r="L24">
-        <v>1.045556795836962</v>
+        <v>0.9901599296345659</v>
       </c>
       <c r="M24">
-        <v>1.060020494986667</v>
+        <v>1.002441763464967</v>
       </c>
       <c r="N24">
         <v>1.005712725503983</v>
@@ -1361,37 +1361,37 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C25">
-        <v>1.047361463783018</v>
+        <v>0.9817008085006489</v>
       </c>
       <c r="D25">
-        <v>1.051509453478215</v>
+        <v>1.005157151126748</v>
       </c>
       <c r="E25">
-        <v>1.044767606286391</v>
+        <v>0.9900801959585883</v>
       </c>
       <c r="F25">
-        <v>1.059455158941106</v>
+        <v>1.003569206181381</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.037766917571452</v>
+        <v>1.036524202715482</v>
       </c>
       <c r="J25">
-        <v>1.052885547361144</v>
+        <v>1.006860106566844</v>
       </c>
       <c r="K25">
-        <v>1.054513417266077</v>
+        <v>1.017675933028663</v>
       </c>
       <c r="L25">
-        <v>1.047792217082301</v>
+        <v>1.002834481057387</v>
       </c>
       <c r="M25">
-        <v>1.062435156523321</v>
+        <v>1.01611236634892</v>
       </c>
       <c r="N25">
         <v>1.005712725503983</v>
